--- a/健診簿見本.xlsx
+++ b/健診簿見本.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SystemAdmin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SystemAdmin\Documents\Visual Studio 2017\Projects\BarcodeReceptionAssistant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB14A662-CC1E-419D-BFA6-79DC9FEF0CD7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BB899E-5F43-4DB3-A01A-1731CB9F144D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18816" windowHeight="8112" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
   <si>
     <t>No</t>
   </si>
@@ -238,6 +238,58 @@
   </si>
   <si>
     <t>E＋F</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>A1010</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>青葉　タロウ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>青葉　次郎</t>
+    <rPh sb="3" eb="5">
+      <t>ジロウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アオバ　タロウ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アオバ　ジロウ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>青葉　建</t>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アオバ　ケン</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>青葉　広子</t>
+    <rPh sb="3" eb="5">
+      <t>ヒロコ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>アオバ　ヒロコ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -647,8 +699,8 @@
   </sheetPr>
   <dimension ref="A1:AQ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,8 +962,8 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>43</v>
+      <c r="B3" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>44</v>
@@ -920,13 +972,13 @@
         <v>45</v>
       </c>
       <c r="E3" s="6">
-        <v>155</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>47</v>
+        <v>264</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>48</v>
@@ -999,8 +1051,8 @@
       <c r="A4" s="6">
         <v>28688</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>43</v>
+      <c r="B4" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>44</v>
@@ -1008,14 +1060,14 @@
       <c r="D4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="6">
-        <v>155</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>47</v>
+      <c r="E4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>48</v>
@@ -1084,8 +1136,8 @@
       <c r="A5" s="6">
         <v>28689</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>43</v>
+      <c r="B5" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>44</v>
@@ -1094,13 +1146,13 @@
         <v>45</v>
       </c>
       <c r="E5" s="6">
-        <v>155</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>47</v>
+        <v>4991</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>48</v>
@@ -1185,13 +1237,13 @@
         <v>45</v>
       </c>
       <c r="E6" s="6">
-        <v>155</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>47</v>
+        <v>1002</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>48</v>
